--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="199">
   <si>
     <t>Sezione</t>
   </si>
@@ -275,21 +275,234 @@
     <t>residenzaOriginaria</t>
   </si>
   <si>
+    <t>Riassunto ente pubblico</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>evento.richiedente.idTipoRichiedente,!=,2</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Richiedente</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>evento.richiedente.idTipoRichiedente,!=,1</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Tipo richiesta</t>
+  </si>
+  <si>
+    <t>tipoDichiarazione</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
     <t>evento.trascrizioneNascita.autoritaMittente</t>
   </si>
   <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
-    <t>evento.richiedente.idTipoRichiedente,!=,2</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -314,217 +527,16 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Riassunto ente pubblico</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Richiedente</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>evento.richiedente.idTipoRichiedente,!=,1</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
-    <t>Comprensione</t>
-  </si>
-  <si>
-    <t>tipoImpedimento</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Tipo richiesta</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Atto nascita intestatario</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>evento.eventoCollegato</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>opzionale</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
   </si>
   <si>
     <t>Dati generali</t>
@@ -655,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1592,1169 +1604,1169 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2972,139 +2984,231 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_034.xlsx
@@ -1734,7 +1734,7 @@
         <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>96</v>
@@ -1964,7 +1964,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>96</v>
@@ -1987,7 +1987,7 @@
         <v>105</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>96</v>
@@ -2010,7 +2010,7 @@
         <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>96</v>
@@ -2056,7 +2056,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>96</v>
@@ -2102,7 +2102,7 @@
         <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>96</v>
@@ -2148,7 +2148,7 @@
         <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>96</v>
@@ -2171,7 +2171,7 @@
         <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>96</v>
